--- a/Test/Results2/R2M/1LMR2MAquaHet.xlsx
+++ b/Test/Results2/R2M/1LMR2MAquaHet.xlsx
@@ -754,154 +754,154 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0.2093239979081543</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1990855361940694</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.1915856172739471</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.1193044180176015</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.169470752901877</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.007697644494132715</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0.05810181793700268</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.01716437787596268</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.5504627380844029</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.1403560218821763</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.2826797335030918</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0.1213798178559282</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0.4119228548995328</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4814255698352227</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>-0.1742162453522742</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0.3138026036066969</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.04255153073818829</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.4294063172683234</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.2974827408136186</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.04666774350837073</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.2624665341621789</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.4966747355690824</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.240347667467774</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-0.2929472039161555</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-0.01015763760214672</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.2040629189032254</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.02189883188712586</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>-0.476555314299129</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.1839869259400718</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.441505696652676</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.207944561380715</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>0.4148597095870125</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>0.4462292836076283</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0.2803393474470863</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.3361967916119591</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.1281387234944452</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>-0.06328798309007491</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>0.03486580397540386</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>0.4119625267119671</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.05015434941833175</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0.2412672908009253</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>0.2539976619612642</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>-0.356343953964018</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.1603456175631327</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0.6302697072341211</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>0.07348300964691983</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>0.2261162777705768</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>0.01708059374023128</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.804771983414426</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>0.8086080298702955</v>
       </c>
     </row>
     <row r="4">
@@ -912,154 +912,154 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1032351555335643</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4150372715594833</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.07881429871708381</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.3503052984242285</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.1661614502113069</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.2983287058922892</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.2426360213464226</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.2427620636079039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.6783028590771634</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.06303494637439437</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.5508232418082342</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.1950497478960206</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.06314013771392271</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.7458976299057727</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.2526224108210407</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0.009774062640932104</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.3126437208028997</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.6652818067265447</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.6236458509693833</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.2264358854079297</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.524909004912296</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.6014045689868557</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.2200322940941206</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.1598038833804327</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.2593175961977989</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.3217186743494461</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.218841949498685</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.01853437956654488</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.4784739331677005</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.5935476040449766</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.3218052450075136</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>0.6858974904457801</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>0.5651422753159963</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0.02534571190183083</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>0.5156625967885874</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.3528587611825071</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.2737840841350151</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.422064086547446</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.5513604982846781</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>0.1182742353395589</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>0.198005630234929</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>0.4760404786132891</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>-0.09158333694689931</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.3475157846422744</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0.4463365209686828</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>0.2720412998253056</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.3860992090052501</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>0.4633284292683634</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>0.7559398482771531</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>0.8906153131760139</v>
       </c>
     </row>
     <row r="5">
@@ -1070,154 +1070,154 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3045900298406781</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7686105879638543</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.3646690359162575</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.7611462278288776</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.402633454956534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.5327055351980159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5201113549499338</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.4604432327936203</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.7370340599381834</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.3819807592760431</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7542752325632847</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.3594295564858875</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.1460088701569284</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.9012779399986109</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.4681627331705682</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.2991670968623242</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.6473949353259549</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.8908324863206101</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.7638812903865588</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.3500613973277656</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.7021107535956278</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.6882009256349428</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.3712395474566555</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.3219128749614248</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.523612388139179</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.3897768102072158</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.4172370572826078</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.2863418412490952</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.7432615760886938</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.7275095835522292</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.5105138755007994</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.8822152342269088</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>0.6467005191772429</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>0.2801267539415557</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.5928556095836339</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.4043429220560379</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.5132066202242906</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.6572199057833648</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.8319741672574444</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>0.489537468773348</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>0.4309220479172855</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>0.6806316872480236</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.1342633008216186</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.7053004474543548</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.1153735471631815</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>0.3486480120202432</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.4872438535285697</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>0.6427832183566728</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>0.8946745293687709</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>0.9474424163726672</v>
       </c>
     </row>
     <row r="6">
@@ -1228,154 +1228,154 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4880856642781684</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9177315519531919</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5195730087031234</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9249361764048573</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.6232041430545169</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.6594933861906312</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.6497027737067509</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.5797029272130775</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.794520000680897</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.6517645901561979</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8910284810658052</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.498182938512958</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.2523567549266205</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.9366995731583373</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.6075659834230956</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.5005546717245497</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.7608834250553016</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.9452675889837843</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.8652910854929919</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.4568185917759906</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.8192811998909607</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.7646441564369049</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.5332413816060543</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.4429843068217847</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.5871969689935508</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.4577382512843113</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.5194983880653207</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.4747561922029829</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.8295224079909016</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.780973558925621</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.5280677156487072</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.9428421500341889</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>0.7403039674300492</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>0.4560353549444492</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>0.717440086485606</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.4941319512661805</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>0.7234134946491841</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>0.7799202437281303</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>0.8983352810831138</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>0.6382710993874554</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>0.5686573934238499</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>0.7509234963597673</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>0.2897236790963725</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>0.7994605868219984</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1327728773098994</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>0.4060036881140195</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.5383225846494947</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>0.7869636732114647</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>0.9140601385190411</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>0.9666379368569752</v>
       </c>
     </row>
     <row r="7">
@@ -1386,154 +1386,154 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5771047817815735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9236333003089929</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.7399078477204717</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.9581278439179001</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7130796841529899</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.6957890656911777</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.7196907554034305</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.7649976068889427</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.8422584511983603</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.7747949658393881</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.9147382811821528</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.6790118433916508</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.3166824509597872</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.949189472154629</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.7005503069985215</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.5988425995115819</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.8359849374205375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.9644915557815353</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.9323526214101502</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.5018366139006507</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.9234890007049834</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.8007005525892833</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.7957602252818052</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.5374565666867748</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.7471060634691472</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.5834738343732204</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.6462081731461665</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.5207121589198971</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.8574284775405641</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.804471935384677</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.5707076564399531</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.8879238793792661</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.795831176642868</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.5477346630445419</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.7727254111588865</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.5307419385629704</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>0.8178653033096013</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.7614229325812367</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>0.935532088397061</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>0.7956884103750509</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>0.6946159513075705</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>0.7947694713290538</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>0.4347909821224801</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.8050726941892062</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2676199897141028</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>0.4909644388858535</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.5446929832299248</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>0.9333028229637785</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>0.958634338174413</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>0.9651278580884354</v>
       </c>
     </row>
     <row r="8">
@@ -1544,154 +1544,154 @@
         <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6341400539368884</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.9519291205088963</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.8477333114835165</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.9469586124659516</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.8554105897833513</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.7666393699794363</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.7499445119944808</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.7970258016876886</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.8616969341130664</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.8263972150764305</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.9443378864434924</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.8260577969682652</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.3513352402992151</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.9198089953836857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.7934572824901985</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.6718301033077269</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.8518574116414259</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.9684155311512967</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.9704091798602698</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.5254604889085104</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.9413214848594947</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.7964101231851755</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.926959554833777</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.5512049736651535</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.728200483790401</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.5929605005691098</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.6471548384402275</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.5568865989195735</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.917905891387666</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.8229600046686982</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.6491594622758629</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.9352408979276298</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.6586447578500461</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.5657482670922371</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.7551207038021782</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.6052370045567653</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.9158129667330739</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.7348093633031018</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.8705745099191085</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.8931614827573719</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.7805988258322197</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.7253754660380294</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.5137424834648124</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.9331970421256257</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.3257171283573</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.5730583599430414</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.5799659015421179</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.9321434881703885</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.955105209405382</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.9543305553946401</v>
       </c>
     </row>
     <row r="9">
@@ -1702,154 +1702,154 @@
         <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.7386262597325202</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.9507935041348183</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.8935594144830027</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.9458943854263917</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.9434728330273924</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.8216741333369739</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.8020161089828841</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.813234485898127</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.8628405933276205</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.8313269940072094</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.9628282766267512</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.8726198529869983</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.3620163200916822</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.9024661296180029</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.8245287625810462</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.7186876515269573</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.8133705358025251</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.9771626517559451</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.9888971945146389</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.5414602686515818</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.9280439956160801</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.8140494319127376</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.9486134571931012</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.5063923899888445</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.3951057967769968</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.5957010783034684</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.7377116533657875</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.5613340199834655</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.9096731655598026</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.8203879312547571</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.6097358561955804</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.9503845378672885</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>0.7747924998785833</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.5757163790827852</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>0.7726337589237613</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.6511508657356575</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.9390498044305229</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.7987099737615945</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.8925692331286649</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.9106003280621066</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>0.7927343616647321</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>0.778829905435006</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>0.5028156629252937</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.9466759658894977</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.2533386116802402</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.621056164604003</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.5549130310438027</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.9188781205548422</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.9577467502472642</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>0.9536554382294947</v>
       </c>
     </row>
     <row r="10">
@@ -1860,154 +1860,154 @@
         <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.7866721844847545</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.9320806518878108</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.9459995126145389</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.9388729341548295</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.9434145048671748</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.855076254519307</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.8234374531206439</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.8432311469945962</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.8624853801770014</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.8651133584090829</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.9625242565310811</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.9274166071425907</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.3837853534430092</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.9138769598770203</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.8613375699730096</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.755971601232316</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.836255485051319</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.9723074573576771</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.9921096889957259</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.5496916164428953</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.918570897184384</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.824854544784704</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.9504086242723319</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.5358018939744977</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0.4215177384394997</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.6083297767799986</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.7742402355554214</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.5642251424805951</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.8860777654777559</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.8141312951368124</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.6812192484873759</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.9444662052262939</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.7435646444748739</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.5753218356226245</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>0.77519302783334</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.6793417055479737</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.9438168946289794</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.6850738098687109</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.8583862086770688</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.9267485081017505</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.7769185877046192</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>0.3530677642196034</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.5464210296467751</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.9488655469569162</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.3355705267519842</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.6449291828483397</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>0.547824528001618</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>0.708353112299222</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>0.9639520348219371</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>0.9445788973685089</v>
       </c>
     </row>
     <row r="11">
@@ -2018,154 +2018,154 @@
         <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.7777043935279561</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.9231796346428051</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.9507227744399526</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.972011594644781</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.9479792591163024</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.8559651011281353</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.8008638961392168</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.8466931666867157</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.88146755418503</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.8518032682239084</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.9517539816513521</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.9439904779079916</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.3781457516067528</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.8086588874035384</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.8250210294897276</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.7971247739945678</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.8350523524540915</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.9698943058462385</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.994003473926247</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.5523852935111588</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.8543086073331564</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.8218317839936837</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.9622585098793938</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.5028667727619137</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.4777982710770582</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.6121807328539245</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.8043788906876268</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.5729623877351342</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.8585834191236383</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.7913616964464293</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.6960343116388923</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>0.9488259519956479</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>0.6771242305257611</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>0.5869583184605206</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>0.6508822095262338</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.6753327992364094</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.9518152799292291</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.7942850471518308</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.886634627059643</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>0.9739033014618385</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>0.8188055812348767</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>0.7160927230610392</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.5539112306120334</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.9551785015075308</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.3196586114770443</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>0.6963598112008408</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>0.5560732368907312</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>0.8291590044908004</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.973580833510529</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>0.9474522491685945</v>
       </c>
     </row>
     <row r="12">
@@ -2176,154 +2176,154 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.7358222821823703</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.9481645582192698</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.9532106594094828</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.8992358723328919</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.9226799733068745</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.8684879964045428</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.7970112877099367</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.9055102675276934</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.8749199753092904</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.8391374021694087</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.9524790613007278</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.9444301077845223</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.3757470469129329</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.8848392715664626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.8370256579306261</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.7982022090951327</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.8467637536135064</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.9711185852559575</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.9960100086756517</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.5704511617464386</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>0.9296389217187322</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.8240987216181561</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.9570121415064472</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.5548703219411517</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.4470893145186513</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.6950706233448423</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.8044160650416258</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.5809477592582063</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.8733840971119878</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.7815275148543068</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.6436121187972552</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.9500663912571494</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>0.7202966778423704</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.6287084383499019</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>0.729564107809422</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.665741815089156</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>0.952729124363827</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>0.7254385084763</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.8959997264750137</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>0.9805601870739317</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>0.7778847054774918</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>0.4511165100214007</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.503840703845602</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.9620752582552813</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.4033378378115224</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>0.6981163843428346</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.6048940761119004</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>0.6364450032041848</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.9574651471182299</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>0.9579758249127015</v>
       </c>
     </row>
     <row r="13">
@@ -2334,154 +2334,154 @@
         <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7971267800936443</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.9620946135205271</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.9450959777930205</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.8928306904055657</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.9213100208698667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.8576974146747807</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.7494714468746748</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.9096011670634245</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.8761502545118</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.8434248322977544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.9333842318955122</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.9634296244133933</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.416282007037598</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.912198602051649</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.8629809600105619</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8336126957717339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.8391339874482477</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.9614258283599932</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.9948906655806086</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.6114981818094056</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.9300805755417013</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.8210709379960253</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.906445723851326</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.5272851415324724</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>0.4526154110989857</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.749673865996244</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.8121615108684418</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.6018606265448174</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.8852714072368582</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.7812207312811967</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.6796796655624303</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.9507616809248459</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.8526820185205118</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.6837727574348826</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.7224355791324174</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.6821930618843578</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>0.9458525115128266</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>0.8185257807082167</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>0.8904829893172053</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.9757089751303407</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>0.7305362315229271</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>0.4797687075093489</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.5567937243863799</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.9683003273614555</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.4593051174025533</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.6938871266838148</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.6141140559150599</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.7343354655929216</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.9502277207396249</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>0.9701306527269397</v>
       </c>
     </row>
     <row r="14">
@@ -2492,154 +2492,154 @@
         <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.7956191015836901</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.9629642793160129</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.9444353304263338</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.8929879460090311</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.925543621241002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.859090835638367</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.7272496600405047</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.9442671907072564</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.8728075592479044</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.8605187722268433</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.9377231562814131</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.9238253173073403</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.4677252744802043</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.9014328269827985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.8650089688922122</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.8453374124355307</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.8199366184913071</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.9576428505018022</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.9930971623150675</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.72581143276113</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.9517799206947319</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.8172554237601113</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.900285762886506</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.5428111877728219</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.6943013218280869</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.837685026150301</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.8206221620667449</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.6832458308617343</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.8999192304870773</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.7803599956227276</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.7251002494030144</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>0.9479428165694445</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>0.8649754986766526</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.7722213419998099</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.7071220534377624</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.6840674477410607</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.9443735885492159</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.8642841280077127</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>0.8939911358902686</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.9760711160550904</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>0.7269672877135533</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>0.5480028090387826</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>0.5702220635972158</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.9722301397341593</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.5955919003778132</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>0.7016862624209439</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>0.5935850964660971</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>0.7959241330745482</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>0.9263845042169143</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>0.9717156015069041</v>
       </c>
     </row>
     <row r="15">
@@ -2650,154 +2650,154 @@
         <v>130</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.7847236725570641</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.9711343280730802</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9461691409271505</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.9547678641890892</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.9220016091138207</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.857289820052662</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.7215507781572202</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.9499825349104031</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.8704526911205129</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.873774696933412</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.9227837871573904</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.9231209051385243</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.481585649799641</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.859787462361822</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.8747699875795707</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.8392212743839315</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.8378318144471408</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.9532203508880362</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.9914049417950959</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.736684844047257</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.9384407257900546</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.8091540484885664</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.8589575273648086</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.5262416063772097</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.7561356946859334</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.8537663196925106</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.8293804800026781</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.7156192035434803</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.9370990782340487</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.7733133826607046</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.7753837325497234</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.9478658105459372</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.8541926527829878</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>0.7591126445328839</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>0.7705171562675464</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.6878984535573984</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>0.9366790815617443</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>0.8253658825316359</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.8668746484252332</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.969227224863468</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>0.7684268186328433</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>0.4507561014471381</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>0.6028319987731873</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.9090912694793161</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.6228163247591488</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>0.7047053409287083</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>0.5669709996019211</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>0.6660316445763552</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>0.9199349178118373</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>0.968617097614471</v>
       </c>
     </row>
     <row r="16">
@@ -2808,154 +2808,154 @@
         <v>140</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7795538619083916</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.9717720163862174</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.9456483745565958</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.973994732370093</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9243723883219326</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8414226710086816</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.7159445624699535</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.8933834655201297</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.8811018597652663</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.892793477424104</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.9055880101370755</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.4997602870985293</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.5182481462358357</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.8116393649581372</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.8815983900044316</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8406312458282689</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.8143255273637497</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.9540387458833931</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.9909872875246144</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.7639979794767142</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.9369554360769921</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.7910910799108793</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.890351010149209</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.542024307442446</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.8471532438382612</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.7194885153073292</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.8396094172892971</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.7520952330693673</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.1757381050327429</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.7534695935193039</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.7864676571838127</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.946167037467419</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>0.8482298133433999</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>0.7588787121804705</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>0.7737343426305745</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.7163227501071526</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>0.92935445363852</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>0.9456963852624981</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>0.8366308603332017</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.9798404688256287</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>0.7798658519490598</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>0.5715669621180263</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>0.6461124581693576</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.9035089174426788</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.6155800642756818</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>0.67748606578728</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>0.6161636367778776</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>0.7907816794055578</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>0.9354443564458095</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>0.9686451688014297</v>
       </c>
     </row>
     <row r="17">
@@ -2966,154 +2966,154 @@
         <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.7760780882405441</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.972619037566809</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.9504669500573749</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.9815239431211119</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.9246387696017364</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.8424703082147731</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.7008009108062592</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.8922599295135654</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.8835329303677765</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.8864128095058335</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.9026671133772626</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.008746890347799463</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.5420672906106615</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.7294274514704324</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.9048926448133117</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.8439199976975487</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.797968365632895</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.9545788503430033</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.9909170252335076</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.7574192031178244</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.9408697940553262</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.7838397934609638</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.8934586675559887</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>0.5539091901327702</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.8169950100711519</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.6431133325544592</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.844359586335402</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>0.7450853457576319</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0.3824632811495717</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.7425428155337604</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>0.7966340591362867</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>0.9464958146047368</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>0.8498085193628915</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>0.7640443875715265</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>0.7465943608060561</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.7285257203923583</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>0.9342462992307936</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>0.9711464269640591</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>0.8201445727854589</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>0.9805887031432331</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>0.7715238031729925</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>0.3504458514974966</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>0.6573159328309283</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.8643755423952143</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.6253062123122521</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>0.625051627398577</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>0.6209767206359958</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>0.7192757320455508</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>0.9467664437104992</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>0.9678469704708479</v>
       </c>
     </row>
     <row r="18">
@@ -3124,154 +3124,154 @@
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.7577163279315534</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.9659719228666396</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.9522513163773929</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.9756267324100764</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.9193473179938371</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.8402108038829634</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.6924533150092861</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.8868865276240557</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.8837484091881815</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.913224768353023</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.898540855446177</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-0.08527701035148748</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.5501006626957025</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.7571971273163741</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.9078642135888012</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.8440387923107004</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.8167091978459522</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.9531434350201449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.9915336979589379</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.7471583026645445</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.9415551124310699</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.7849281283924886</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.8868839030737464</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.5601843359089007</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.8775968266863539</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.6524718076583356</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.8457304143470508</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.7365759618135521</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>-0.4475740056844114</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.7386566849417029</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.7971739619340592</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>0.9468669778704777</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.8389026602409734</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.7609218522469959</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>0.7400664041583078</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.7293135837350989</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.9343700433195492</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.9673994946191083</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.828264901638168</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.9808269365586202</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>0.7547305565747566</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>0.5014669432608658</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>0.6568655040528901</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.8341421098092664</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.6086666311871287</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>0.5827475481067156</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>0.6163051169366577</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>0.7721295502600131</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>0.9514521279502864</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>0.9679290526673271</v>
       </c>
     </row>
     <row r="19">
@@ -3282,154 +3282,154 @@
         <v>170</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.7432834748373899</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.9672564264363521</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.9251805196721523</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.9700546529016095</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.9050260469381646</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8350009346878883</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.6912314024759948</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.8932904552619028</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.8836697052184724</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.911841438027423</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.8958922626644286</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-0.1075878898609129</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.5406725615707394</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.7875275308648274</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.9034055370925242</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.8405399750013384</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.8092794944265935</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.953047238029481</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.992523663481632</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.7460671756915945</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.9658328547419637</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.7850786364904524</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.875689525235559</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.5729520432798521</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.9001687218191791</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.6608509453506256</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.8487480976504231</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.7511593029744431</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>-0.4522505870702941</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.7389282346804358</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.7997781409486083</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>0.9469521864510522</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>0.8384118942446428</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.755738533123256</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>0.7445595076765694</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.7245979336568686</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>0.9276776489617419</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>0.9648763920499214</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.8437320964808348</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>0.9815116133117525</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.7608295633940061</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>0.5275180053652561</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>0.6579315411410105</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.8167474044551487</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>0.6018750425746014</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>0.5676838840692993</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>0.5990852887155023</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>0.7906742320415631</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>0.9439303348135736</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>0.9688477612487114</v>
       </c>
     </row>
     <row r="20">
@@ -3440,154 +3440,154 @@
         <v>180</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.742931451237975</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.969349705426886</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.8942699208680983</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.9666494301855166</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.8487855456374662</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.8323111870488444</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.7115105489847308</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9024728658501791</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.8842514724257772</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.9108978395101459</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.898148911957946</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0.1652569830237507</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.5551017064127578</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.6975873808129063</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.9029040264667099</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.8372453897154176</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.807253535649335</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.953579228529198</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.9924871902533799</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.7430515451163571</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.9618316319736071</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.7850834018118177</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.8668222965251402</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>0.5814770458061445</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>0.9022772200518004</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>0.654696097479383</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.8507555985031472</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>0.7460655175277146</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>-0.4599760820434147</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.7409879226104378</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>0.7976156073865538</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>0.9473730162843502</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>0.8616043628441946</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>0.756617198237616</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>0.734904407401254</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>0.7255848372522937</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>0.9170933689554576</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>0.9710273330044121</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>0.8438283475373684</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>0.9689662834259547</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.7475032780305629</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>0.4227099559159437</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>0.6534038961868839</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.8044192289451022</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>0.604708752790176</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>0.5668399874107365</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>0.57159119562149</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>0.8177071566335548</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>0.9372808147839738</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>0.9688145191935216</v>
       </c>
     </row>
     <row r="21">
@@ -3598,154 +3598,154 @@
         <v>190</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.7535721475890022</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.9671611223876735</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.8829698063322743</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.9765568886526892</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.8378559808793322</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.8290839908377901</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.7600747379997621</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9199451860192785</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.8845717125830884</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.8985797040147766</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.9014995627581474</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.04497872006037626</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.5639565630564923</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.8509681986797155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.9032539874323828</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.8400684853938372</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.80044968981041</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.950683566354786</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.9927494398654215</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.7447527593684592</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.9628521249180201</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.7821076669862403</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.8688024233492808</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>0.6195692454143932</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.8746338793484626</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>0.7247989508207567</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>0.8549028277638834</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>0.7875055907003529</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>-0.465877896795982</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.7446673177743457</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>0.7949573204751941</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>0.9564149023600664</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>0.8700515137240085</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>0.7629541090847932</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>0.7808800308427131</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>0.7276324014626571</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>0.9048724703574963</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>0.9759182088286923</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>0.8487463969587227</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>0.9529770211029284</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>0.7491561310554709</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>0.2094070302748492</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>0.6553558240957347</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>0.7739691916642846</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>0.6297131459488349</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>0.5667731093135071</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>0.5581177355875437</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>0.7385860668824925</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>0.9368953438553659</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>0.9687983785696525</v>
       </c>
     </row>
     <row r="22">
@@ -3756,154 +3756,154 @@
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7644204284202736</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.963734579988144</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.9137962349080165</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.9802858767374233</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.8657366747247252</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.777892424293866</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.80658123934478</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.9218597855484351</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.8848613212300002</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.9180763913975548</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.90078819456395</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.2591165371968915</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.5907294985861307</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.914003211844865</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.9061461530270511</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.8352715350879952</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.7912564690251691</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.9539898897404583</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.9904906710720228</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.7345628065305463</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.9598941763634177</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.7765118471606588</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.868233828006711</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>0.6932292121162574</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.8852936248947091</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>0.7804057740567806</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.8655915964180332</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.7529959158551077</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>-0.4500894118636282</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.7447652618546851</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>0.8058021825574552</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>0.9604600368646344</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>0.8625249974696796</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>0.7948878956481412</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>0.8315025835897338</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>0.7324694187684717</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>0.9099846862606434</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>0.9778532594219292</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>0.8581407668962945</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>0.9605540839787233</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>0.7493909493094314</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>0.3455942487864776</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>0.6685073024455689</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>0.7639413212344076</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>0.636606806239593</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>0.5553343326282033</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>0.5522459376802931</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>0.821866222900226</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>0.9346467335176235</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>0.9690333317076986</v>
       </c>
     </row>
   </sheetData>
